--- a/files/template.xlsx
+++ b/files/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="template1" sheetId="1" state="visible" r:id="rId2"/>
@@ -215,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -371,10 +371,24 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="double"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="double"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
+      <top style="double"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -407,7 +421,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -744,16 +758,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="23" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="23" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="24" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -780,9 +806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>758880</xdr:colOff>
+      <xdr:colOff>758520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -796,7 +822,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4077720" y="672480"/>
-          <a:ext cx="1971000" cy="394200"/>
+          <a:ext cx="1970640" cy="393840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,9 +843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>793080</xdr:colOff>
+      <xdr:colOff>792720</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -833,7 +859,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5303520" y="308880"/>
-          <a:ext cx="779400" cy="1579680"/>
+          <a:ext cx="779040" cy="1579320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -859,9 +885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>758880</xdr:colOff>
+      <xdr:colOff>758520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -875,7 +901,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4077720" y="672840"/>
-          <a:ext cx="1971000" cy="394200"/>
+          <a:ext cx="1970640" cy="393840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,9 +922,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>793440</xdr:colOff>
+      <xdr:colOff>793080</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -912,7 +938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5303880" y="309240"/>
-          <a:ext cx="779400" cy="1579680"/>
+          <a:ext cx="779040" cy="1579320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -934,11 +960,11 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R37" activeCellId="0" sqref="R37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="7.75"/>
@@ -961,7 +987,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="n">
         <f aca="true">TODAY()</f>
-        <v>44377</v>
+        <v>44381</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="1"/>
@@ -13508,10 +13534,10 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="R41" activeCellId="0" sqref="R41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="7.75"/>
@@ -13534,7 +13560,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="n">
         <f aca="true">TODAY()</f>
-        <v>44377</v>
+        <v>44381</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="1"/>
@@ -14305,18 +14331,18 @@
       <c r="N42" s="37"/>
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="68" t="s">
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="72" t="n">
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="89" t="n">
         <f aca="false">SUM(J14:J42)</f>
         <v>0</v>
       </c>
@@ -26073,11 +26099,11 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="7.75"/>
@@ -26836,18 +26862,18 @@
       <c r="N39" s="37"/>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68" t="s">
+      <c r="A40" s="84"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="72" t="n">
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="89" t="n">
         <f aca="false">SUM(J3:J39)</f>
         <v>0</v>
       </c>
@@ -38604,10 +38630,10 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="O32" activeCellId="0" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="7.75"/>
@@ -39317,10 +39343,10 @@
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="86" t="n">
+      <c r="G37" s="61"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="64" t="n">
         <f aca="false">SUM(J3:J36)</f>
         <v>0</v>
       </c>
